--- a/Marketing Team Data(result) (Recovered).xlsx
+++ b/Marketing Team Data(result) (Recovered).xlsx
@@ -2,24 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Execelerate DA Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0881F13-1FC3-4CC3-BD41-41AB5955B411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC011172-6B39-4C5B-A1DF-3EF96E43B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet8" sheetId="13" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="20" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="63">
   <si>
     <t>campaign ID</t>
   </si>
@@ -217,6 +220,15 @@
   <si>
     <t>Sum of Amount Spent in INR</t>
   </si>
+  <si>
+    <t>Sum of Cost per Result (CPR)</t>
+  </si>
+  <si>
+    <t>Sum of Click-Through Rate (CTR in %)</t>
+  </si>
+  <si>
+    <t>Sum of Unique Click-Through Rate (Unique CTR in %)</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -245,16 +257,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,11 +288,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,11 +322,20 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -292,6 +345,24 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,26 +429,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
@@ -646,10 +697,6 @@
                 <a:prstGeom prst="rect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
               </c15:spPr>
             </c:ext>
           </c:extLst>
@@ -1560,45 +1607,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1609,45 +1617,6 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1658,45 +1627,6 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1707,45 +1637,6 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1756,45 +1647,6 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1805,45 +1657,6 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1854,45 +1667,6 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1903,45 +1677,6 @@
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -1952,45 +1687,6 @@
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -2001,45 +1697,6 @@
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -2050,45 +1707,6 @@
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-F3EE-47EE-A1AE-51BA690D473D}"/>
@@ -2166,10 +1784,6 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2738,6 +2352,2066 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Marketing Team Data(result) (Recovered).xlsx]Sheet8!PivotTable4</c:name>
+    <c:fmtId val="7"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1"/>
+              <a:t>Cost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> spent and click rate of each campaign</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3885045159796182E-2"/>
+          <c:y val="0.19889872013421003"/>
+          <c:w val="0.65405051046008955"/>
+          <c:h val="0.54451172984820195"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost per Result (CPR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$36:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$36:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C05D-4BB9-A9B9-B7F8C5541915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Click-Through Rate (CTR in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$36:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$C$36:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.06160765420071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.875937470304585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.801233172711324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9433095694993341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.540384597953452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.921752495572443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.091072016184189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6934851244004676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.787890554636451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.556386891637523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6071250514881257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C05D-4BB9-A9B9-B7F8C5541915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1133595535"/>
+        <c:axId val="1133593615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1133595535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1133593615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1133593615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1133595535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75938163405125825"/>
+          <c:y val="0.4014971453310604"/>
+          <c:w val="0.23449091496834951"/>
+          <c:h val="0.22140406418269881"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1"/>
+              <a:t>Highest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> Click Through Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$19:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>29.556386891637523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.801233172711324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.787890554636451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.540384597953452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.06160765420071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.921752495572443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.875937470304585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.091072016184189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6071250514881257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9433095694993341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6934851244004676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8041-4D60-BE95-92DDB4D22EE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="228973951"/>
+        <c:axId val="228974431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="228973951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228974431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228974431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228973951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1"/>
+              <a:t>Highest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> CPR Spent</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5C4-464D-967E-A5039A3C9057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="201419935"/>
+        <c:axId val="201419455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201419935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201419455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="201419455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201419935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Marketing Team Data(result) (Recovered).xlsx]Sheet6!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Cost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> spent and unique click rate of each campaign</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost per Result (CPR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3201-4CA2-983E-CBE1FD4AACA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="425624175"/>
+        <c:axId val="425626575"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Unique Click-Through Rate (Unique CTR in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.729516419999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.189331729999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.063625440000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6500061199999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.659132390000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.414205930000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.17901958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.22923314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.275484119999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.078126659999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2752201900000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3201-4CA2-983E-CBE1FD4AACA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="425624175"/>
+        <c:axId val="425626575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="425624175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425626575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="425626575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425624175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
@@ -3091,7 +4765,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3383,19 +5056,139 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3406,7 +5199,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3419,7 +5212,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -3436,7 +5229,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3452,7 +5245,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3496,20 +5289,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3518,13 +5311,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3536,10 +5329,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3548,17 +5341,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3662,8 +5454,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3753,20 +5551,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3779,17 +5577,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3821,7 +5608,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3830,13 +5617,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3890,13 +5678,1528 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4440,6 +7743,160 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E00ED21-976F-E290-9505-4797872FD0F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BEAA88-A425-D59B-2092-236F2454E56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F49CE8-41B4-82B5-E953-E2CE89B78E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1013460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3401870E-C75D-6C5F-FC34-54E7241039D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4546,6 +8003,81 @@
     </cacheField>
     <cacheField name="Cost per Result (CPR)" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.69" maxValue="30.55"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="45724.384609259258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{B3903B37-A103-40D9-B990-A3CF94CFB8CB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P34" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="campaign ID" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Campaign 3"/>
+        <s v="Campaign 6"/>
+        <s v="Campaign 1"/>
+        <s v="Campaign 2"/>
+        <s v="Campaign 11"/>
+        <s v="Campaign 7"/>
+        <s v="Campaign 8"/>
+        <s v="Campaign 4"/>
+        <s v="Campaign 10"/>
+        <s v="Campaign 9"/>
+        <s v="Campaign 5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Campaign Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Audience" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Geography" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Reach" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="91" maxValue="30110"/>
+    </cacheField>
+    <cacheField name="Impressions" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="103" maxValue="39161"/>
+    </cacheField>
+    <cacheField name="Frequency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.042613636" maxValue="3.1690805530000001"/>
+    </cacheField>
+    <cacheField name="Clicks" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="2593"/>
+    </cacheField>
+    <cacheField name="Unique Clicks" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="1994"/>
+    </cacheField>
+    <cacheField name="Unique Link Clicks (ULC)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="1095"/>
+    </cacheField>
+    <cacheField name="Click-Through Rate (CTR in %)" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6688918558077435" maxValue="12.951807228915662"/>
+    </cacheField>
+    <cacheField name="Unique Click-Through Rate (Unique CTR in %)" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0265991099999998" maxValue="12.131147540000001"/>
+    </cacheField>
+    <cacheField name="Amount Spent in INR" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.26" maxValue="1193.94"/>
+    </cacheField>
+    <cacheField name="Cost Per Click (CPC)" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.29093766999999998" maxValue="10.18469247"/>
+    </cacheField>
+    <cacheField name="Cost per Result (CPR)" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.69" maxValue="30.55"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5227,8 +8759,607 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
+  <r>
+    <x v="0"/>
+    <s v="SHU_Students(Australia)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Australia"/>
+    <n v="212"/>
+    <n v="222"/>
+    <n v="1.0471698110000001"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="4.0540540540540544"/>
+    <n v="3.7735849099999994"/>
+    <n v="1193.94"/>
+    <n v="10.18469247"/>
+    <n v="30.55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SHU_Students (India)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="India"/>
+    <n v="30110"/>
+    <n v="35372"/>
+    <n v="1.174759216"/>
+    <n v="1308"/>
+    <n v="1162"/>
+    <n v="934"/>
+    <n v="3.6978400995137397"/>
+    <n v="3.8591830000000003"/>
+    <n v="1092.24"/>
+    <n v="0.68348251999999998"/>
+    <n v="0.96"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="55-64"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="889"/>
+    <n v="1890"/>
+    <n v="2.1259842519999999"/>
+    <n v="49"/>
+    <n v="40"/>
+    <n v="21"/>
+    <n v="2.5925925925925926"/>
+    <n v="4.4994375700000004"/>
+    <n v="894"/>
+    <n v="1.76011659"/>
+    <n v="4.1100000000000003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="SHU3_ (Students Apart from India and US)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Group 2 (Australia, Canada, United Kingdom, Ghana, Niger, Nigeria, Nepal, Pakistan, Thailand, Taiwan)"/>
+    <n v="2066"/>
+    <n v="2447"/>
+    <n v="1.184414327"/>
+    <n v="181"/>
+    <n v="141"/>
+    <n v="65"/>
+    <n v="7.3968124233755619"/>
+    <n v="6.8247821899999987"/>
+    <n v="835.46"/>
+    <n v="0.47277255000000001"/>
+    <n v="1.32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="35-44"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="8761"/>
+    <n v="15683"/>
+    <n v="1.7900924549999999"/>
+    <n v="484"/>
+    <n v="376"/>
+    <n v="154"/>
+    <n v="3.0861442326085573"/>
+    <n v="4.2917475200000004"/>
+    <n v="691.28"/>
+    <n v="1.7261653800000001"/>
+    <n v="5.43"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SHU_Students (USA)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="USA"/>
+    <n v="2159"/>
+    <n v="2465"/>
+    <n v="1.1417322830000001"/>
+    <n v="126"/>
+    <n v="111"/>
+    <n v="95"/>
+    <n v="5.1115618661257605"/>
+    <n v="5.1412691099999996"/>
+    <n v="634.64"/>
+    <n v="5.4863581899999998"/>
+    <n v="7.28"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SHU_Students(Nepal)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Nepal"/>
+    <n v="18900"/>
+    <n v="36659"/>
+    <n v="1.93962963"/>
+    <n v="849"/>
+    <n v="688"/>
+    <n v="306"/>
+    <n v="2.3159387872009605"/>
+    <n v="3.6402116399999995"/>
+    <n v="542.66999999999996"/>
+    <n v="0.74751528"/>
+    <n v="2.0699999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SHU_Students (India)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="India"/>
+    <n v="1721"/>
+    <n v="1874"/>
+    <n v="1.088901801"/>
+    <n v="92"/>
+    <n v="76"/>
+    <n v="53"/>
+    <n v="4.909284951974386"/>
+    <n v="4.4160371899999999"/>
+    <n v="528.08000000000004"/>
+    <n v="0.66537891000000005"/>
+    <n v="1.1499999999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="SHU_Students (Nigeria)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Nigeria"/>
+    <n v="11027"/>
+    <n v="13820"/>
+    <n v="1.253287386"/>
+    <n v="1491"/>
+    <n v="1132"/>
+    <n v="548"/>
+    <n v="10.788712011577424"/>
+    <n v="10.26571144"/>
+    <n v="487.52"/>
+    <n v="0.36396574999999998"/>
+    <n v="0.99"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="SHU_Students (Canada)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Canada"/>
+    <n v="2330"/>
+    <n v="3146"/>
+    <n v="1.3502145919999999"/>
+    <n v="101"/>
+    <n v="84"/>
+    <n v="63"/>
+    <n v="3.2104259376986648"/>
+    <n v="3.6051502100000001"/>
+    <n v="475.85"/>
+    <n v="5.2284878700000004"/>
+    <n v="8.3800000000000008"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="SHU_Students(UK)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="UK"/>
+    <n v="2557"/>
+    <n v="2941"/>
+    <n v="1.1501759869999999"/>
+    <n v="69"/>
+    <n v="60"/>
+    <n v="33"/>
+    <n v="2.3461407684461069"/>
+    <n v="2.3464998000000001"/>
+    <n v="455.49"/>
+    <n v="7.0655072499999996"/>
+    <n v="14.77"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SHU_Students(Australia)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Australia"/>
+    <n v="2271"/>
+    <n v="2616"/>
+    <n v="1.151915456"/>
+    <n v="61"/>
+    <n v="55"/>
+    <n v="28"/>
+    <n v="2.3318042813455659"/>
+    <n v="2.4218405999999999"/>
+    <n v="378.1"/>
+    <n v="7.8007930099999996"/>
+    <n v="16.989999999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SHU_Students (USA)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="USA"/>
+    <n v="91"/>
+    <n v="103"/>
+    <n v="1.1318681319999999"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="8.7378640776699026"/>
+    <n v="8.7912087900000007"/>
+    <n v="319.38"/>
+    <n v="5.2514043800000003"/>
+    <n v="15.75"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SHU_Students(UAE)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="UAE"/>
+    <n v="2892"/>
+    <n v="3347"/>
+    <n v="1.157330567"/>
+    <n v="135"/>
+    <n v="102"/>
+    <n v="41"/>
+    <n v="4.0334628025097103"/>
+    <n v="3.5269709499999995"/>
+    <n v="316.14"/>
+    <n v="3.3739992999999999"/>
+    <n v="11.11"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="SHU_Students(Ghana)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Ghana"/>
+    <n v="5952"/>
+    <n v="6943"/>
+    <n v="1.1664986559999999"/>
+    <n v="284"/>
+    <n v="238"/>
+    <n v="98"/>
+    <n v="4.0904508137692641"/>
+    <n v="3.9986559100000001"/>
+    <n v="299.51"/>
+    <n v="1.33135077"/>
+    <n v="3.86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="45-54"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="2867"/>
+    <n v="6283"/>
+    <n v="2.191489362"/>
+    <n v="198"/>
+    <n v="145"/>
+    <n v="65"/>
+    <n v="3.1513608148973424"/>
+    <n v="5.0575514500000001"/>
+    <n v="294.82"/>
+    <n v="1.6130377300000001"/>
+    <n v="4.91"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SHU_Students(UAE)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="UAE"/>
+    <n v="2862"/>
+    <n v="3234"/>
+    <n v="1.1299790359999999"/>
+    <n v="72"/>
+    <n v="60"/>
+    <n v="27"/>
+    <n v="2.2263450834879404"/>
+    <n v="2.0964360599999998"/>
+    <n v="283.17"/>
+    <n v="4.3908387800000002"/>
+    <n v="11.71"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="SHU3_ (Students Apart from India and US)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Group 2 (Australia, Canada, United Kingdom, Ghana, Niger, Nigeria, Nepal, Pakistan, Thailand, Taiwan)"/>
+    <n v="14753"/>
+    <n v="25705"/>
+    <n v="1.742357487"/>
+    <n v="969"/>
+    <n v="698"/>
+    <n v="435"/>
+    <n v="3.7696946119432013"/>
+    <n v="4.7312411000000001"/>
+    <n v="282.22000000000003"/>
+    <n v="0.30908815000000001"/>
+    <n v="0.69"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="SHU_Students (Canada)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Canada"/>
+    <n v="759"/>
+    <n v="878"/>
+    <n v="1.1567852439999999"/>
+    <n v="52"/>
+    <n v="44"/>
+    <n v="34"/>
+    <n v="5.9225512528473807"/>
+    <n v="5.7971014500000004"/>
+    <n v="282.20999999999998"/>
+    <n v="5.6696015500000003"/>
+    <n v="8.67"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SHU_Students(Australia)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Australia"/>
+    <n v="704"/>
+    <n v="734"/>
+    <n v="1.042613636"/>
+    <n v="49"/>
+    <n v="46"/>
+    <n v="13"/>
+    <n v="6.6757493188010901"/>
+    <n v="6.5340909099999998"/>
+    <n v="255.57"/>
+    <n v="5.7789672200000002"/>
+    <n v="21.78"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="SHU_Students(Ghana)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Ghana"/>
+    <n v="3717"/>
+    <n v="4620"/>
+    <n v="1.2429378529999999"/>
+    <n v="184"/>
+    <n v="160"/>
+    <n v="46"/>
+    <n v="3.9826839826839828"/>
+    <n v="4.3045466799999996"/>
+    <n v="211.76"/>
+    <n v="1.5337844199999999"/>
+    <n v="6.14"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="SHU_Students (Nigeria)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Nigeria"/>
+    <n v="8516"/>
+    <n v="12372"/>
+    <n v="1.452794739"/>
+    <n v="970"/>
+    <n v="696"/>
+    <n v="408"/>
+    <n v="7.8402845134173935"/>
+    <n v="8.1728511000000008"/>
+    <n v="188.84"/>
+    <n v="0.29093766999999998"/>
+    <n v="0.69"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="SHU_Students(UK)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="UK"/>
+    <n v="741"/>
+    <n v="785"/>
+    <n v="1.059379217"/>
+    <n v="39"/>
+    <n v="34"/>
+    <n v="20"/>
+    <n v="4.9681528662420389"/>
+    <n v="4.5883940599999997"/>
+    <n v="177.46"/>
+    <n v="6.5530769199999996"/>
+    <n v="12.78"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SHU_Students(Nepal)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Nepal"/>
+    <n v="6145"/>
+    <n v="19474"/>
+    <n v="3.1690805530000001"/>
+    <n v="325"/>
+    <n v="246"/>
+    <n v="129"/>
+    <n v="1.6688918558077435"/>
+    <n v="4.0032546800000004"/>
+    <n v="159.13999999999999"/>
+    <n v="0.65156015"/>
+    <n v="1.64"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SHU_Students(Nepal)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Nepal"/>
+    <n v="4623"/>
+    <n v="9082"/>
+    <n v="1.9645252"/>
+    <n v="246"/>
+    <n v="212"/>
+    <n v="83"/>
+    <n v="2.7086544813917639"/>
+    <n v="4.5857668199999999"/>
+    <n v="117.9"/>
+    <n v="0.76765236000000003"/>
+    <n v="2.2799999999999998"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="SHU_Students(Ghana)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Ghana"/>
+    <n v="5355"/>
+    <n v="8920"/>
+    <n v="1.6657329599999999"/>
+    <n v="180"/>
+    <n v="154"/>
+    <n v="93"/>
+    <n v="2.0179372197309418"/>
+    <n v="2.8758169900000001"/>
+    <n v="113.58"/>
+    <n v="0.98588916000000004"/>
+    <n v="1.91"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SHU_Students (USA)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="USA"/>
+    <n v="305"/>
+    <n v="332"/>
+    <n v="1.08852459"/>
+    <n v="43"/>
+    <n v="37"/>
+    <n v="28"/>
+    <n v="12.951807228915662"/>
+    <n v="12.131147540000001"/>
+    <n v="104.63"/>
+    <n v="3.7008425200000001"/>
+    <n v="5.68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="SHU3_ (Students Apart from India and US)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Group 2 (Australia, Canada, United Kingdom, Ghana, Niger, Nigeria, Nepal, Pakistan, Thailand, Taiwan)"/>
+    <n v="29675"/>
+    <n v="39161"/>
+    <n v="1.319663016"/>
+    <n v="2593"/>
+    <n v="1994"/>
+    <n v="1095"/>
+    <n v="6.6213835193176891"/>
+    <n v="6.7194608300000001"/>
+    <n v="101.06"/>
+    <n v="0.46044803000000001"/>
+    <n v="1.0900000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="SHU_Students (Nigeria)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Nigeria"/>
+    <n v="2386"/>
+    <n v="2782"/>
+    <n v="1.1659681479999999"/>
+    <n v="304"/>
+    <n v="230"/>
+    <n v="117"/>
+    <n v="10.927390366642703"/>
+    <n v="9.6395641199999993"/>
+    <n v="91.66"/>
+    <n v="0.38782084999999999"/>
+    <n v="1.01"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="SHU_Students(UK)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="UK"/>
+    <n v="338"/>
+    <n v="365"/>
+    <n v="1.0798816570000001"/>
+    <n v="13"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="3.5616438356164384"/>
+    <n v="3.2544378700000003"/>
+    <n v="86.25"/>
+    <n v="8.7369230800000004"/>
+    <n v="28.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="25-34"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="11387"/>
+    <n v="23283"/>
+    <n v="2.0447000970000002"/>
+    <n v="487"/>
+    <n v="406"/>
+    <n v="180"/>
+    <n v="2.0916548554739509"/>
+    <n v="3.5654693900000001"/>
+    <n v="85.57"/>
+    <n v="2.2427900900000002"/>
+    <n v="6.07"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SHU_Students(UAE)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="UAE"/>
+    <n v="1579"/>
+    <n v="2079"/>
+    <n v="1.3166561109999999"/>
+    <n v="35"/>
+    <n v="32"/>
+    <n v="20"/>
+    <n v="1.6835016835016834"/>
+    <n v="2.0265991099999998"/>
+    <n v="61.21"/>
+    <n v="2.98942007"/>
+    <n v="5.23"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="SHU_Students (Canada)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Canada"/>
+    <n v="218"/>
+    <n v="243"/>
+    <n v="1.1146788990000001"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="15"/>
+    <n v="7.4074074074074066"/>
+    <n v="8.2568807300000007"/>
+    <n v="47.26"/>
+    <n v="5.6146358100000002"/>
+    <n v="6.74"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E7D44F-D942-43F0-ABCF-45E4C4F4A79B}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E7D44F-D942-43F0-ABCF-45E4C4F4A79B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -5475,6 +9606,328 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7E437DE-94E6-49AA-BAAB-906252152594}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A35:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="12">
+        <item x="2"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Cost per Result (CPR)" fld="15" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Click-Through Rate (CTR in %)" fld="11" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="10">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{375A1537-4018-45B3-9B92-33486155AEAB}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="12">
+        <item x="2"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Cost per Result (CPR)" fld="15" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Sum of Unique Click-Through Rate (Unique CTR in %)" fld="12" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -5796,14 +10249,545 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BA15A6-FF60-4E38-A48F-3DDD07F005B0}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="11">
+        <v>69.319999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="11">
+        <v>55.949999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="11">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11">
+        <v>23.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="11">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="15">
+        <v>252.14000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="11">
+        <v>29.556386891637523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="11">
+        <v>26.801233172711324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11">
+        <v>17.787890554636451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="11">
+        <v>16.540384597953452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="11">
+        <v>13.06160765420071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="11">
+        <v>10.921752495572443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="11">
+        <v>10.875937470304585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="11">
+        <v>10.091072016184189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="11">
+        <v>8.6071250514881257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="11">
+        <v>7.9433095694993341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="13">
+        <v>6.6934851244004676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="11">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="C36" s="11">
+        <v>13.06160765420071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="11">
+        <v>55.949999999999996</v>
+      </c>
+      <c r="C37" s="11">
+        <v>10.875937470304585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="11">
+        <v>28.71</v>
+      </c>
+      <c r="C38" s="11">
+        <v>26.801233172711324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="11">
+        <v>28.05</v>
+      </c>
+      <c r="C39" s="11">
+        <v>7.9433095694993341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="11">
+        <v>23.79</v>
+      </c>
+      <c r="C40" s="11">
+        <v>16.540384597953452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="11">
+        <v>20.52</v>
+      </c>
+      <c r="C41" s="11">
+        <v>10.921752495572443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="11">
+        <v>11.91</v>
+      </c>
+      <c r="C42" s="11">
+        <v>10.091072016184189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>5.99</v>
+      </c>
+      <c r="C43" s="11">
+        <v>6.6934851244004676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="C44" s="11">
+        <v>17.787890554636451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2.69</v>
+      </c>
+      <c r="C45" s="11">
+        <v>29.556386891637523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="C46" s="11">
+        <v>8.6071250514881257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="11">
+        <v>252.14000000000001</v>
+      </c>
+      <c r="C47" s="9">
+        <v>158.88018459858858</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:B30">
+    <sortCondition descending="1" ref="B19:B30"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C25C8A7-D6C5-459B-A9E6-07991FFB12A9}">
+  <dimension ref="A3:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="11">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12.729516419999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="11">
+        <v>55.949999999999996</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10.189331729999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="11">
+        <v>28.71</v>
+      </c>
+      <c r="C6" s="9">
+        <v>26.063625440000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11">
+        <v>28.05</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7.6500061199999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11">
+        <v>23.79</v>
+      </c>
+      <c r="C8" s="9">
+        <v>17.659132390000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11">
+        <v>20.52</v>
+      </c>
+      <c r="C9" s="9">
+        <v>17.414205930000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11.91</v>
+      </c>
+      <c r="C10" s="9">
+        <v>11.17901958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5.99</v>
+      </c>
+      <c r="C11" s="9">
+        <v>12.22923314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="C12" s="9">
+        <v>18.275484119999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.69</v>
+      </c>
+      <c r="C13" s="9">
+        <v>28.078126659999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8.2752201900000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="11">
+        <v>252.14000000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>169.74290172000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6636,7 +11620,7 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -7543,11 +12527,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A77068-B9DB-4B89-9C4C-2FDDF727D0FC}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Marketing Team Data(result) (Recovered).xlsx
+++ b/Marketing Team Data(result) (Recovered).xlsx
@@ -2,27 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Execelerate DA Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC011172-6B39-4C5B-A1DF-3EF96E43B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6F7643-CC97-4902-A7D9-DEA96F4C2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="13" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="20" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
+    <sheet name="Cost spent per campaign" sheetId="6" r:id="rId1"/>
+    <sheet name="CTR vs CPR" sheetId="13" r:id="rId2"/>
+    <sheet name="CPR vs UCTR" sheetId="20" r:id="rId3"/>
+    <sheet name="CPC vs CPR" sheetId="24" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="25" r:id="rId5"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId6"/>
+    <sheet name="Reach vs CTR" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="65">
   <si>
     <t>campaign ID</t>
   </si>
@@ -229,6 +231,12 @@
   <si>
     <t>Sum of Unique Click-Through Rate (Unique CTR in %)</t>
   </si>
+  <si>
+    <t>Sum of Cost Per Click (CPC)</t>
+  </si>
+  <si>
+    <t>Sum of Frequency</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -331,11 +339,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -345,9 +359,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -384,16 +395,12 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="8"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Marketing Team Data(result) (Recovered).xlsx]Sheet2!PivotTable2</c:name>
-    <c:fmtId val="22"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -402,7 +409,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -415,8 +422,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Total amont spent per campaign</a:t>
+              <a:rPr lang="en-IN" b="1"/>
+              <a:t>Amount</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> spent vs UCTR</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -429,1616 +440,61 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="4.8685491723466411E-3"/>
-              <c:y val="-0.29518564926219665"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="6.9863041705960074E-3"/>
-              <c:y val="-0.28614405794212433"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-              </c15:spPr>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="5.7202258189001931E-3"/>
-              <c:y val="-0.25859022369039319"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="8.471019992997467E-3"/>
-              <c:y val="-0.20219608624871258"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="2.1177549982493668E-3"/>
-              <c:y val="-0.19990080353879816"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="2.1177549982493073E-3"/>
-              <c:y val="-0.14852581718424437"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="3.7406047223649138E-3"/>
-              <c:y val="-0.14852581718424437"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="1.6228497241155468E-3"/>
-              <c:y val="-0.1466595947658442"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="0"/>
-              <c:y val="-0.13116145291965087"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="2.1177549982493668E-3"/>
-              <c:y val="-0.131880033983094"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:sp3d/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="4.9490527413370089E-4"/>
-              <c:y val="-0.13188003398309389"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$3</c:f>
+              <c:f>'Cost spent per campaign'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Sum of Amount Spent in INR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d/>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-F3EE-47EE-A1AE-51BA690D473D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.8685491723466411E-3"/>
-                  <c:y val="-0.29518564926219665"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.9863041705960074E-3"/>
-                  <c:y val="-0.28614405794212433"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.7202258189001931E-3"/>
-                  <c:y val="-0.25859022369039319"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.471019992997467E-3"/>
-                  <c:y val="-0.20219608624871258"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1177549982493668E-3"/>
-                  <c:y val="-0.19990080353879816"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1177549982493073E-3"/>
-                  <c:y val="-0.14852581718424437"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.7406047223649138E-3"/>
-                  <c:y val="-0.14852581718424437"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.6228497241155468E-3"/>
-                  <c:y val="-0.1466595947658442"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-0.13116145291965087"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1177549982493668E-3"/>
-                  <c:y val="-0.131880033983094"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.9490527413370089E-4"/>
-                  <c:y val="-0.13188003398309389"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-F3EE-47EE-A1AE-51BA690D473D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$15</c:f>
+              <c:f>'Cost spent per campaign'!$A$18:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2079,7 +535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$15</c:f>
+              <c:f>'Cost spent per campaign'!$B$18:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2121,26 +577,177 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D96B-4D0E-9DDF-1B31F10B3DE5}"/>
+              <c16:uniqueId val="{00000000-05C8-4D8E-8D5A-7AEFBF55E5BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="602434272"/>
-        <c:axId val="602433312"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="12848048"/>
+        <c:axId val="12849008"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost spent per campaign'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Unique Click-Through Rate (Unique CTR in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-05C8-4D8E-8D5A-7AEFBF55E5BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost spent per campaign'!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost spent per campaign'!$C$18:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1218.9944151000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>891.06614939999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>579.26541330000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1279.2838883999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1824.4537808000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>856.04631979999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1236.1392673000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1965.4688661999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>713.25322109999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>535.50042839999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>782.53137060000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05C8-4D8E-8D5A-7AEFBF55E5BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="12848048"/>
+        <c:axId val="12849008"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="602434272"/>
+        <c:axId val="12848048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +759,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2183,15 +790,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602433312"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="12849008"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="602433312"/>
+        <c:axId val="12849008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,8 +848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602434272"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="12848048"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2255,7 +860,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2326,22 +931,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -2359,7 +948,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Marketing Team Data(result) (Recovered).xlsx]Sheet8!PivotTable4</c:name>
+    <c:name>[Marketing Team Data(result) (Recovered).xlsx]CTR vs CPR!PivotTable4</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -2558,7 +1147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$B$35</c:f>
+              <c:f>'CTR vs CPR'!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2579,7 +1168,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$A$36:$A$47</c:f>
+              <c:f>'CTR vs CPR'!$A$36:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2620,7 +1209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$B$36:$B$47</c:f>
+              <c:f>'CTR vs CPR'!$B$36:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2671,7 +1260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$C$35</c:f>
+              <c:f>'CTR vs CPR'!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2692,7 +1281,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$A$36:$A$47</c:f>
+              <c:f>'CTR vs CPR'!$A$36:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2733,7 +1322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$C$36:$C$47</c:f>
+              <c:f>'CTR vs CPR'!$C$36:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3042,12 +1631,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" b="1"/>
-              <a:t>Highest</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-IN" b="1" baseline="0"/>
-              <a:t> Click Through Rate</a:t>
+              <a:t>Lowest Click Through Rate</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN" b="1"/>
           </a:p>
@@ -3078,7 +1663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3104,7 +1689,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$A$19:$A$29</c:f>
+              <c:f>'CTR vs CPR'!$A$19:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3145,7 +1730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$B$19:$B$29</c:f>
+              <c:f>'CTR vs CPR'!$B$19:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3433,7 +2018,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3459,7 +2044,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$A$2:$A$12</c:f>
+              <c:f>'CTR vs CPR'!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3500,7 +2085,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$B$2:$B$12</c:f>
+              <c:f>'CTR vs CPR'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3732,8 +2317,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Marketing Team Data(result) (Recovered).xlsx]Sheet6!PivotTable3</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[Marketing Team Data(result) (Recovered).xlsx]CPR vs UCTR!PivotTable3</c:name>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -3756,14 +2341,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Cost</a:t>
+              <a:rPr lang="en-IN" b="1"/>
+              <a:t>CPR</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> spent and unique click rate of each campaign</a:t>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> and CPC with UCTR</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
+            <a:endParaRPr lang="en-IN" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3866,19 +2451,1945 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18703371538017208"/>
+          <c:y val="0.23333173292362844"/>
+          <c:w val="0.5506257663737979"/>
+          <c:h val="0.48154780957258392"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPR vs UCTR'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost per Result (CPR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="9525">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CPR vs UCTR'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPR vs UCTR'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C28-4D56-8F2F-FA6DBC36229C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPR vs UCTR'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost Per Click (CPC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CPR vs UCTR'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPR vs UCTR'!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>\$#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.7644527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.355507249999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.438605090000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.75425815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.512725230000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3421097900000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8510243500000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1667277899999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24230873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0427242699999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3488614299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C28-4D56-8F2F-FA6DBC36229C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="128734896"/>
+        <c:axId val="128731536"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPR vs UCTR'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Unique Click-Through Rate (Unique CTR in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CPR vs UCTR'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPR vs UCTR'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.729516419999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.189331729999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.063625440000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6500061199999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.659132390000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.414205930000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.17901958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.22923314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.275484119999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.078126659999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2752201900000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C28-4D56-8F2F-FA6DBC36229C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="128734896"/>
+        <c:axId val="128731536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128734896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" b="1"/>
+                  <a:t>UCTR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128731536"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128731536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" b="1"/>
+                  <a:t>CPR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" b="1" baseline="0"/>
+                  <a:t> and CPC</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.2393822393822388E-2"/>
+              <c:y val="0.32579940464758972"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128734896"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75213824623273429"/>
+          <c:y val="0.39985302904210146"/>
+          <c:w val="0.23820924411475591"/>
+          <c:h val="0.29887091095320401"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1"/>
+              <a:t>CPC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> with CTR</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost Per Click (CPC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPC vs CPR'!$B$18:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.7644527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.355507249999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.512725230000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.438605090000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.75425815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3421097900000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8510243500000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1667277899999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3488614299999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.24230873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0427242699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51E2-4A46-B739-689E2C0D6105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="476344384"/>
+        <c:axId val="476341984"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Click-Through Rate (CTR in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPC vs CPR'!$C$18:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.06160765420071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.875937470304585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.540384597953452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.801233172711324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9433095694993341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.921752495572443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.091072016184189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6934851244004676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6071250514881257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.787890554636451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.556386891637523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51E2-4A46-B739-689E2C0D6105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="476344384"/>
+        <c:axId val="476341984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="476344384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476341984"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476341984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476344384"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1"/>
+              <a:t>CPR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> with CTR</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost per Result (CPR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$A$32:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPC vs CPR'!$B$32:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A315-44D5-A628-241D8A0CA791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="503697568"/>
+        <c:axId val="503699968"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Click-Through Rate (CTR in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CPC vs CPR'!$A$32:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPC vs CPR'!$C$32:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.06160765420071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.875937470304585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.801233172711324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9433095694993341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.540384597953452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.921752495572443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.091072016184189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6934851244004676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.787890554636451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.556386891637523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6071250514881257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A315-44D5-A628-241D8A0CA791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="503697568"/>
+        <c:axId val="503699968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="503697568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503699968"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503699968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503697568"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Marketing Team Data(result) (Recovered).xlsx]Sheet4!PivotTable8</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3934,11 +4445,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$3</c:f>
+              <c:f>Sheet4!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Cost per Result (CPR)</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3955,38 +4466,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$A$4:$A$15</c:f>
+              <c:f>Sheet4!$A$4:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Campaign 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Campaign 5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Campaign 8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Campaign 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Campaign 9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Campaign 11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Campaign 10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Campaign 3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Campaign 10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Campaign 11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Campaign 9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Campaign 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Campaign 1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Campaign 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Campaign 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Campaign 2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Campaign 8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Campaign 6</c:v>
@@ -3996,49 +4507,49 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$4:$B$15</c:f>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>69.319999999999993</c:v>
+                  <c:v>8.1522661660000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.949999999999996</c:v>
+                  <c:v>7.0732353830000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.71</c:v>
+                  <c:v>4.2464348300000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.05</c:v>
+                  <c:v>4.0751694689999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.79</c:v>
+                  <c:v>3.8720502730000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.52</c:v>
+                  <c:v>3.6216787349999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.91</c:v>
+                  <c:v>3.6039657139999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.99</c:v>
+                  <c:v>3.3621250049999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>3.289436861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.69</c:v>
+                  <c:v>3.2416989030000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.11</c:v>
+                  <c:v>2.263661017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3201-4CA2-983E-CBE1FD4AACA7}"/>
+              <c16:uniqueId val="{00000000-726D-48BA-AD3C-45AF33AEF0EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4052,155 +4563,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="425624175"/>
-        <c:axId val="425626575"/>
+        <c:axId val="130082880"/>
+        <c:axId val="130084320"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet6!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Unique Click-Through Rate (Unique CTR in %)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Campaign 3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Campaign 10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Campaign 11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Campaign 9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Campaign 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Campaign 1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Campaign 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Campaign 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Campaign 2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Campaign 8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Campaign 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet6!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12.729516419999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.189331729999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.063625440000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6500061199999987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.659132390000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.414205930000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.17901958</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.22923314</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.275484119999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.078126659999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.2752201900000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3201-4CA2-983E-CBE1FD4AACA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="425624175"/>
-        <c:axId val="425626575"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="425624175"/>
+        <c:axId val="130082880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425626575"/>
+        <c:crossAx val="130084320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4251,7 +4618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425626575"/>
+        <c:axId val="130084320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4638,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4302,7 +4669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425624175"/>
+        <c:crossAx val="130082880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4405,7 +4772,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4543,7 +4910,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$34</c:f>
+              <c:f>'Reach vs CTR'!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -4651,7 +5018,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$B$34</c:f>
+              <c:f>'Reach vs CTR'!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
@@ -5096,12 +5463,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
-  <a:schemeClr val="accent2"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5138,6 +5499,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
 </cs:colorStyle>
 </file>
 
@@ -5182,12 +5549,688 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5690,7 +6733,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6193,7 +7236,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6696,7 +7739,1555 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7199,7 +9790,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7705,23 +10296,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013155DF-5A2D-4A30-8F40-078FC84FF7FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8A9594-1EFC-3256-3377-60E6C9248A79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7788,10 +10379,10 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7824,10 +10415,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7859,23 +10450,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1013460</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3401870E-C75D-6C5F-FC34-54E7241039D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D605C9-FD76-F727-5DC1-4EB4FAD90766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7900,16 +10491,134 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417DD4CC-ACC9-90AA-14E2-39729DDE07ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FC3858-5BD5-6E8B-8A03-2562CEB4DEC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554B3F5C-BB82-3AC7-0916-9F75590508A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7940,7 +10649,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="45722.793296180556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="37" xr:uid="{F6706C48-F0A8-4C91-BDFF-50D30B1B8B26}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:P1048576" sheet="Dataset"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="campaign ID" numFmtId="0">
@@ -8016,7 +10725,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="45724.384609259258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{B3903B37-A103-40D9-B990-A3CF94CFB8CB}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P34" sheet="Sheet1"/>
+    <worksheetSource ref="A1:P34" sheet="Dataset"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="campaign ID" numFmtId="0">
@@ -9359,8 +12068,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E7D44F-D942-43F0-ABCF-45E4C4F4A79B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E7D44F-D942-43F0-ABCF-45E4C4F4A79B}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="47">
+  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="13">
@@ -9399,7 +12108,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9445,155 +12154,21 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of Amount Spent in INR" fld="13" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of Unique Click-Through Rate (Unique CTR in %)" fld="12" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="22" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -9708,7 +12283,7 @@
     <dataField name="Sum of Click-Through Rate (CTR in %)" fld="11" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -9717,7 +12292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="10">
@@ -9735,7 +12310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9796,8 +12371,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{375A1537-4018-45B3-9B92-33486155AEAB}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{375A1537-4018-45B3-9B92-33486155AEAB}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="12">
@@ -9836,6 +12411,179 @@
     <pivotField showAll="0"/>
     <pivotField numFmtId="2" showAll="0"/>
     <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Cost per Result (CPR)" fld="15" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Sum of Unique Click-Through Rate (Unique CTR in %)" fld="12" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Sum of Cost Per Click (CPC)" fld="14" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DAD2C6-D61D-42A5-92EF-43A8E10B4BFF}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="12">
+        <item x="2"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
@@ -9894,10 +12642,42 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Sum of Cost per Result (CPR)" fld="15" baseField="0" baseItem="0" numFmtId="4"/>
-    <dataField name="Sum of Unique Click-Through Rate (Unique CTR in %)" fld="12" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Sum of Click-Through Rate (CTR in %)" fld="11" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="10">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9906,11 +12686,127 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACDD42F3-2292-47E6-A94C-86978B509CBB}" name="PivotTable8" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="2"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Frequency" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -10126,120 +13022,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF812837-4EEC-46A9-A09C-6EAF274F82AE}">
-  <dimension ref="A3:B15"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="8">
         <v>1965.6699999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <v>17.414205930000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="8">
         <v>1827.61</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="9">
+        <v>12.729516419999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="8">
         <v>1620.3200000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
+        <v>8.2752201900000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="8">
         <v>1218.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>18.275484119999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="8">
         <v>1058.6500000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>26.063625440000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="8">
         <v>819.70999999999992</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>12.22923314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>805.31999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>17.659132390000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="8">
         <v>768.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>28.078126659999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="8">
         <v>719.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>10.189331729999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="8">
         <v>660.52</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <v>7.6500061199999987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="8">
         <v>624.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <v>11.17901958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="8">
         <v>12088.609999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>169.74290172000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1965.6699999999998</v>
+      </c>
+      <c r="C18" s="9">
+        <f>D18*70</f>
+        <v>1218.9944151000002</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17.414205930000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1827.61</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:C28" si="0">D19*70</f>
+        <v>891.06614939999997</v>
+      </c>
+      <c r="D19" s="9">
+        <v>12.729516419999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1620.3200000000002</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>579.26541330000009</v>
+      </c>
+      <c r="D20" s="9">
+        <v>8.2752201900000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1218.74</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>1279.2838883999998</v>
+      </c>
+      <c r="D21" s="9">
+        <v>18.275484119999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1058.6500000000001</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>1824.4537808000002</v>
+      </c>
+      <c r="D22" s="9">
+        <v>26.063625440000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8">
+        <v>819.70999999999992</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="0"/>
+        <v>856.04631979999999</v>
+      </c>
+      <c r="D23" s="9">
+        <v>12.22923314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8">
+        <v>805.31999999999994</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>1236.1392673000003</v>
+      </c>
+      <c r="D24" s="9">
+        <v>17.659132390000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="8">
+        <v>768.02</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="0"/>
+        <v>1965.4688661999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>28.078126659999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8">
+        <v>719.2</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>713.25322109999991</v>
+      </c>
+      <c r="D26" s="9">
+        <v>10.189331729999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8">
+        <v>660.52</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>535.50042839999992</v>
+      </c>
+      <c r="D27" s="9">
+        <v>7.6500061199999987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="8">
+        <v>624.85</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>782.53137060000006</v>
+      </c>
+      <c r="D28" s="9">
+        <v>11.17901958</v>
       </c>
     </row>
   </sheetData>
@@ -10252,8 +13364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BA15A6-FF60-4E38-A48F-3DDD07F005B0}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10617,20 +13729,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C25C8A7-D6C5-459B-A9E6-07991FFB12A9}">
-  <dimension ref="A3:C15"/>
+  <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -10640,8 +13753,11 @@
       <c r="C3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -10651,8 +13767,11 @@
       <c r="C4" s="9">
         <v>12.729516419999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17">
+        <v>23.7644527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -10662,8 +13781,11 @@
       <c r="C5" s="9">
         <v>10.189331729999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="17">
+        <v>22.355507249999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -10673,8 +13795,11 @@
       <c r="C6" s="9">
         <v>26.063625440000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="17">
+        <v>14.438605090000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -10684,8 +13809,11 @@
       <c r="C7" s="9">
         <v>7.6500061199999987</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="17">
+        <v>10.75425815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -10695,8 +13823,11 @@
       <c r="C8" s="9">
         <v>17.659132390000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="17">
+        <v>16.512725230000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -10706,8 +13837,11 @@
       <c r="C9" s="9">
         <v>17.414205930000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>7.3421097900000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -10717,8 +13851,11 @@
       <c r="C10" s="9">
         <v>11.17901958</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>3.8510243500000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -10728,8 +13865,11 @@
       <c r="C11" s="9">
         <v>12.22923314</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>2.1667277899999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -10739,8 +13879,11 @@
       <c r="C12" s="9">
         <v>18.275484119999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>1.24230873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -10750,8 +13893,11 @@
       <c r="C13" s="9">
         <v>28.078126659999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="17">
+        <v>1.0427242699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -10761,8 +13907,11 @@
       <c r="C14" s="9">
         <v>8.2752201900000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="17">
+        <v>1.3488614299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -10772,6 +13921,69 @@
       <c r="C15" s="9">
         <v>169.74290172000002</v>
       </c>
+      <c r="D15" s="17">
+        <v>104.81930478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10780,14 +13992,569 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B63759-2B31-4CC3-B639-9BA5086E993E}">
+  <dimension ref="A3:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="11">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="C4" s="9">
+        <v>13.06160765420071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="11">
+        <v>55.949999999999996</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10.875937470304585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="11">
+        <v>28.71</v>
+      </c>
+      <c r="C6" s="9">
+        <v>26.801233172711324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11">
+        <v>28.05</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7.9433095694993341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11">
+        <v>23.79</v>
+      </c>
+      <c r="C8" s="9">
+        <v>16.540384597953452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11">
+        <v>20.52</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10.921752495572443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11.91</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10.091072016184189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5.99</v>
+      </c>
+      <c r="C11" s="9">
+        <v>6.6934851244004676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="C12" s="9">
+        <v>17.787890554636451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.69</v>
+      </c>
+      <c r="C13" s="9">
+        <v>29.556386891637523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8.6071250514881257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="11">
+        <v>252.14000000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>158.88018459858858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
+        <v>23.7644527</v>
+      </c>
+      <c r="C18" s="9">
+        <v>13.06160765420071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="11">
+        <v>22.355507249999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10.875937470304585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11">
+        <v>16.512725230000001</v>
+      </c>
+      <c r="C20" s="9">
+        <v>16.540384597953452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="11">
+        <v>14.438605090000001</v>
+      </c>
+      <c r="C21" s="9">
+        <v>26.801233172711324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11">
+        <v>10.75425815</v>
+      </c>
+      <c r="C22" s="9">
+        <v>7.9433095694993341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="11">
+        <v>7.3421097900000003</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10.921752495572443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3.8510243500000003</v>
+      </c>
+      <c r="C24" s="9">
+        <v>10.091072016184189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2.1667277899999999</v>
+      </c>
+      <c r="C25" s="9">
+        <v>6.6934851244004676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1.3488614299999999</v>
+      </c>
+      <c r="C26" s="9">
+        <v>8.6071250514881257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1.24230873</v>
+      </c>
+      <c r="C27" s="9">
+        <v>17.787890554636451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1.0427242699999999</v>
+      </c>
+      <c r="C28" s="19">
+        <v>29.556386891637523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="C32" s="9">
+        <v>13.06160765420071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="11">
+        <v>55.949999999999996</v>
+      </c>
+      <c r="C33" s="9">
+        <v>10.875937470304585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="11">
+        <v>28.71</v>
+      </c>
+      <c r="C34" s="9">
+        <v>26.801233172711324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="11">
+        <v>28.05</v>
+      </c>
+      <c r="C35" s="9">
+        <v>7.9433095694993341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11">
+        <v>23.79</v>
+      </c>
+      <c r="C36" s="9">
+        <v>16.540384597953452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="11">
+        <v>20.52</v>
+      </c>
+      <c r="C37" s="9">
+        <v>10.921752495572443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11">
+        <v>11.91</v>
+      </c>
+      <c r="C38" s="9">
+        <v>10.091072016184189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="11">
+        <v>5.99</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6.6934851244004676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="C40" s="9">
+        <v>17.787890554636451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2.69</v>
+      </c>
+      <c r="C41" s="9">
+        <v>29.556386891637523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="C42" s="9">
+        <v>8.6071250514881257</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:C28">
+    <sortCondition descending="1" ref="B18:B28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FEA636-8A1B-48A8-84BA-156C6FC82B89}">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16">
+        <v>8.1522661660000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="16">
+        <v>7.0732353830000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="16">
+        <v>4.2464348300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="16">
+        <v>4.0751694689999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="16">
+        <v>3.8720502730000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3.6216787349999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3.6039657139999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3.3621250049999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3.289436861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="16">
+        <v>3.2416989030000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2.263661017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="16">
+        <v>46.801722355999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P34"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12527,295 +16294,398 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A77068-B9DB-4B89-9C4C-2FDDF727D0FC}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
         <v>741</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>12.951807228915662</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
         <v>338</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>10.927390366642703</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
         <v>6145</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>10.788712011577424</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
         <v>3717</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>8.7378640776699026</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
         <v>2066</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>7.8402845134173935</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1">
         <v>91</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>7.4074074074074066</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1">
         <v>14753</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>7.3968124233755619</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
         <v>2271</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>6.6757493188010901</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
         <v>704</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>6.6213835193176891</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
         <v>2330</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>5.9225512528473807</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1">
         <v>11027</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>5.1115618661257605</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
         <v>1721</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>4.9681528662420389</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1">
         <v>8516</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>4.909284951974386</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
         <v>2867</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>4.0904508137692641</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
         <v>30110</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>4.0540540540540544</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>2892</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>4.0334628025097103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
         <v>2159</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>3.9826839826839828</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
         <v>2386</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>3.7696946119432013</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
         <v>29675</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>3.6978400995137397</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
         <v>305</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>3.5616438356164384</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1">
         <v>5952</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>3.2104259376986648</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
         <v>2862</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>3.1513608148973424</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1">
         <v>11387</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>3.0861442326085573</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1">
         <v>889</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>2.7086544813917639</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1">
         <v>18900</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>2.5925925925925926</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
         <v>5355</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>2.3461407684461069</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1">
         <v>4623</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>2.3318042813455659</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
         <v>8761</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>2.3159387872009605</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
         <v>2557</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>2.2263450834879404</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="1">
         <v>218</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>2.0916548554739509</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
         <v>759</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>2.0179372197309418</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
         <v>212</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>1.6835016835016834</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
         <v>1579</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>1.6688918558077435</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
-    <sortCondition descending="1" ref="B2:B34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C34">
+    <sortCondition descending="1" ref="C2:C34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Marketing Team Data(result) (Recovered).xlsx
+++ b/Marketing Team Data(result) (Recovered).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Execelerate DA Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6F7643-CC97-4902-A7D9-DEA96F4C2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8854760-0B5E-4F8C-942D-FBA81BBE9957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost spent per campaign" sheetId="6" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId8"/>
-    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -242,8 +242,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -339,12 +340,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,6 +792,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="12849008"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -849,6 +851,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="12848048"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -972,16 +975,48 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" b="1"/>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Cost</a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> spent</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-IN" b="1" baseline="0"/>
-              <a:t> spent and click rate of each campaign</a:t>
+              <a:t> and </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>click rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> of each campaign</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2389614078090985"/>
+          <c:y val="7.857142857142857E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1086,14 +1121,21 @@
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -1101,9 +1143,81 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1121,7 +1235,678 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.14570007107320526"/>
+              <c:y val="-0.15"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="6.3965884861407252E-2"/>
+              <c:y val="-0.14285714285714285"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.4626865671641729E-2"/>
+              <c:y val="-0.16190476190476191"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.9957356076759065E-2"/>
+              <c:y val="-0.28571428571428575"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.13148542999289262"/>
+              <c:y val="-0.22857142857142862"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="3.9090262970859983E-2"/>
+              <c:y val="-0.26666666666666666"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.4626865671641784E-2"/>
+              <c:y val="-0.3166666666666666"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1132,9 +1917,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3885045159796182E-2"/>
-          <c:y val="0.19889872013421003"/>
-          <c:w val="0.65405051046008955"/>
+          <c:x val="0.11942159282328516"/>
+          <c:y val="0.2060416197975253"/>
+          <c:w val="0.79264322370151497"/>
           <c:h val="0.54451172984820195"/>
         </c:manualLayout>
       </c:layout>
@@ -1279,6 +2064,551 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-6B7C-4BB3-92E7-343415627523}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6B7C-4BB3-92E7-343415627523}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6B7C-4BB3-92E7-343415627523}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6B7C-4BB3-92E7-343415627523}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.4626865671641784E-2"/>
+                  <c:y val="-0.3166666666666666"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9090262970859983E-2"/>
+                  <c:y val="-0.26666666666666666"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13148542999289262"/>
+                  <c:y val="-0.22857142857142862"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9957356076759065E-2"/>
+                  <c:y val="-0.28571428571428575"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.4626865671641729E-2"/>
+                  <c:y val="-0.16190476190476191"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.3965884861407252E-2"/>
+                  <c:y val="-0.14285714285714285"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14570007107320526"/>
+                  <c:y val="-0.15"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6B7C-4BB3-92E7-343415627523}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'CTR vs CPR'!$A$36:$A$47</c:f>
@@ -1496,47 +2826,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75938163405125825"/>
-          <c:y val="0.4014971453310604"/>
-          <c:w val="0.23449091496834951"/>
-          <c:h val="0.22140406418269881"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1583,8 +2872,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1679,7 +2966,9 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1687,6 +2976,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E7C9-42DA-AE1F-C2B43C795885}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E7C9-42DA-AE1F-C2B43C795885}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E7C9-42DA-AE1F-C2B43C795885}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'CTR vs CPR'!$A$19:$A$29</c:f>
@@ -1851,9 +3197,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2034,7 +3379,9 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2042,6 +3389,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E9C9-41BF-8964-4D5DBCB27527}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E9C9-41BF-8964-4D5DBCB27527}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'CTR vs CPR'!$A$2:$A$12</c:f>
@@ -2341,22 +3726,60 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" b="1"/>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>CPR</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" b="1" baseline="0"/>
-              <a:t> and CPC with UCTR</a:t>
+              <a:t> and </a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN" b="1"/>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CPC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> with </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UCTR</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39483953372272623"/>
+          <c:y val="6.6697911439670216E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2377,7 +3800,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2458,7 +3881,9 @@
           <c:spPr>
             <a:noFill/>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2551,6 +3976,380 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln cmpd="tri">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.599749495185828E-2"/>
+              <c:y val="-0.36231915917604024"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> least user intreact campaign</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.15363189567169566"/>
+                  <c:h val="0.14505291526622244"/>
+                </c:manualLayout>
+              </c15:layout>
+              <c15:showDataLabelsRange val="0"/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.10290625339069648"/>
+              <c:y val="-0.20274218819719622"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>It is inefficient due to its high CPR and CTS, combined with a very low CTR."</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+              <c15:showDataLabelsRange val="0"/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2558,10 +4357,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18703371538017208"/>
-          <c:y val="0.23333173292362844"/>
-          <c:w val="0.5506257663737979"/>
-          <c:h val="0.48154780957258392"/>
+          <c:x val="0.14256291307617666"/>
+          <c:y val="0.19522621911327157"/>
+          <c:w val="0.77734115208159171"/>
+          <c:h val="0.60452266606370031"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2592,6 +4391,199 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln cmpd="tri">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'CPR vs UCTR'!$A$4:$A$15</c:f>
@@ -2835,6 +4827,267 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-CB5D-49E6-9F3E-38B0BB086450}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.599749495185828E-2"/>
+                  <c:y val="-0.36231915917604024"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Second</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> least user intreact campaign</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="EA4335"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.15363189567169566"/>
+                      <c:h val="0.14505291526622244"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-CB5D-49E6-9F3E-38B0BB086450}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10290625339069648"/>
+                  <c:y val="-0.20274218819719622"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t>It is inefficient due to its high CPR and CTS, combined with a very low CTR."</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="EA4335"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-CB5D-49E6-9F3E-38B0BB086450}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'CPR vs UCTR'!$A$4:$A$15</c:f>
@@ -2971,6 +5224,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.54533895316942527"/>
+              <c:y val="0.91870239765471218"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3038,6 +5299,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="128731536"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3099,8 +5361,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.2393822393822388E-2"/>
-              <c:y val="0.32579940464758972"/>
+              <c:x val="4.6667251591482932E-2"/>
+              <c:y val="0.31915211002879007"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3128,7 +5390,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3164,6 +5426,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="128734896"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3174,47 +5437,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75213824623273429"/>
-          <c:y val="0.39985302904210146"/>
-          <c:w val="0.23820924411475591"/>
-          <c:h val="0.29887091095320401"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3260,9 +5482,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -3345,7 +5564,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3658,6 +5877,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="476341984"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3716,6 +5936,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="476344384"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3871,7 +6092,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4184,6 +6405,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="503699968"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4242,6 +6464,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="503697568"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -4346,6 +6569,36 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>No</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> of people who saw ad</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4433,6 +6686,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.771929824561403E-3"/>
+              <c:y val="-0.13051146384479717"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:fld id="{26801080-2148-4B53-96C0-CC05F1A3E850}" type="CATEGORYNAME">
+                  <a:rPr lang="en-US"/>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:t>[CATEGORY NAME]</a:t>
+                </a:fld>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>, , first less </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+              <c15:dlblFieldTable/>
+              <c15:showDataLabelsRange val="0"/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4464,6 +6829,151 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.771929824561403E-3"/>
+                  <c:y val="-0.13051146384479717"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{26801080-2148-4B53-96C0-CC05F1A3E850}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, , first less </a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-2F94-4C92-8EA2-B0B8E0B47B3D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$4:$A$15</c:f>
@@ -4509,7 +7019,7 @@
             <c:numRef>
               <c:f>Sheet4!$B$4:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>8.1522661660000004</c:v>
@@ -4638,7 +7148,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4757,8 +7267,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
@@ -4870,10 +7378,13 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="72750">
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
@@ -4908,6 +7419,100 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11372549019607843"/>
+                  <c:y val="-0.11702986279257466"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Reach doesn't affect CTR growth</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C1D1-4630-B907-6930D16FC6D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Reach vs CTR'!$B$2:$B$34</c:f>
@@ -10296,16 +12901,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10338,15 +12943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>10330</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10374,15 +12979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10410,15 +13015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>454462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10451,15 +13056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>691497</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348953</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>135308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10568,16 +13173,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10609,16 +13214,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12068,7 +14673,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E7D44F-D942-43F0-ABCF-45E4C4F4A79B}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="47">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E7D44F-D942-43F0-ABCF-45E4C4F4A79B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="47">
   <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12182,7 +14787,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7E437DE-94E6-49AA-BAAB-906252152594}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7E437DE-94E6-49AA-BAAB-906252152594}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A35:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12320,7 +14925,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="15">
     <chartFormat chart="7" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12357,6 +14962,138 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="7" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12371,7 +15108,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{375A1537-4018-45B3-9B92-33486155AEAB}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{375A1537-4018-45B3-9B92-33486155AEAB}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12475,7 +15212,7 @@
     <dataField name="Sum of Unique Click-Through Rate (Unique CTR in %)" fld="12" baseField="0" baseItem="0" numFmtId="2"/>
     <dataField name="Sum of Cost Per Click (CPC)" fld="14" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="19">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12530,6 +15267,162 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12544,7 +15437,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DAD2C6-D61D-42A5-92EF-43A8E10B4BFF}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DAD2C6-D61D-42A5-92EF-43A8E10B4BFF}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12645,7 +15538,7 @@
     <dataField name="Sum of Click-Through Rate (CTR in %)" fld="11" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12666,7 +15559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12709,7 +15602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACDD42F3-2292-47E6-A94C-86978B509CBB}" name="PivotTable8" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACDD42F3-2292-47E6-A94C-86978B509CBB}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12799,14 +15692,26 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Frequency" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Frequency" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -13365,7 +16270,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13731,8 +16636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C25C8A7-D6C5-459B-A9E6-07991FFB12A9}">
   <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13767,7 +16672,7 @@
       <c r="C4" s="9">
         <v>12.729516419999999</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>23.7644527</v>
       </c>
     </row>
@@ -13781,7 +16686,7 @@
       <c r="C5" s="9">
         <v>10.189331729999999</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>22.355507249999999</v>
       </c>
     </row>
@@ -13795,7 +16700,7 @@
       <c r="C6" s="9">
         <v>26.063625440000003</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>14.438605090000001</v>
       </c>
     </row>
@@ -13809,7 +16714,7 @@
       <c r="C7" s="9">
         <v>7.6500061199999987</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>10.75425815</v>
       </c>
     </row>
@@ -13823,7 +16728,7 @@
       <c r="C8" s="9">
         <v>17.659132390000003</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>16.512725230000001</v>
       </c>
     </row>
@@ -13837,7 +16742,7 @@
       <c r="C9" s="9">
         <v>17.414205930000001</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>7.3421097900000003</v>
       </c>
     </row>
@@ -13851,7 +16756,7 @@
       <c r="C10" s="9">
         <v>11.17901958</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>3.8510243500000003</v>
       </c>
     </row>
@@ -13865,7 +16770,7 @@
       <c r="C11" s="9">
         <v>12.22923314</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>2.1667277899999999</v>
       </c>
     </row>
@@ -13879,7 +16784,7 @@
       <c r="C12" s="9">
         <v>18.275484119999998</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1.24230873</v>
       </c>
     </row>
@@ -13893,7 +16798,7 @@
       <c r="C13" s="9">
         <v>28.078126659999999</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>1.0427242699999999</v>
       </c>
     </row>
@@ -13907,7 +16812,7 @@
       <c r="C14" s="9">
         <v>8.2752201900000006</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>1.3488614299999999</v>
       </c>
     </row>
@@ -13921,7 +16826,7 @@
       <c r="C15" s="9">
         <v>169.74290172000002</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>104.81930478</v>
       </c>
     </row>
@@ -14271,13 +17176,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="13">
         <v>1.0427242699999999</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>29.556386891637523</v>
       </c>
     </row>
@@ -14426,8 +17331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FEA636-8A1B-48A8-84BA-156C6FC82B89}">
   <dimension ref="A3:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14448,7 +17353,7 @@
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="19">
         <v>8.1522661660000004</v>
       </c>
     </row>
@@ -14456,7 +17361,7 @@
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="19">
         <v>7.0732353830000001</v>
       </c>
     </row>
@@ -14464,7 +17369,7 @@
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="19">
         <v>4.2464348300000001</v>
       </c>
     </row>
@@ -14472,7 +17377,7 @@
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="19">
         <v>4.0751694689999995</v>
       </c>
     </row>
@@ -14480,7 +17385,7 @@
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="19">
         <v>3.8720502730000002</v>
       </c>
     </row>
@@ -14488,7 +17393,7 @@
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="19">
         <v>3.6216787349999997</v>
       </c>
     </row>
@@ -14496,7 +17401,7 @@
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="19">
         <v>3.6039657139999997</v>
       </c>
     </row>
@@ -14504,7 +17409,7 @@
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="19">
         <v>3.3621250049999998</v>
       </c>
     </row>
@@ -14512,7 +17417,7 @@
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="19">
         <v>3.289436861</v>
       </c>
     </row>
@@ -14520,7 +17425,7 @@
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="19">
         <v>3.2416989030000001</v>
       </c>
     </row>
@@ -14528,7 +17433,7 @@
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="19">
         <v>2.263661017</v>
       </c>
     </row>
@@ -14536,7 +17441,7 @@
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="19">
         <v>46.801722355999999</v>
       </c>
     </row>
@@ -16299,7 +19204,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
